--- a/Resources/TestData.xlsx
+++ b/Resources/TestData.xlsx
@@ -11,21 +11,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Testcase</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Current</t>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>paymentMethod</t>
   </si>
   <si>
     <t>Payment</t>
   </si>
   <si>
     <t>INR</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
   </si>
 </sst>
 </file>
@@ -292,16 +298,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>100.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
